--- a/one/src/main/resources/conf/templates/quote-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/quote-20160426.xlsx
@@ -229,15 +229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -252,22 +243,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,33 +580,33 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -626,26 +629,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/one/src/main/resources/conf/templates/quote-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/quote-20160426.xlsx
@@ -115,27 +115,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${item.projectId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.projectItemId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.bomId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.spId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.mainFabricDescs}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${item.quotedPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.projectName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.projectItemName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.bomName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.spName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,22 +634,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">

--- a/one/src/main/resources/conf/templates/quote-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/quote-20160426.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -78,37 +78,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>翊凯贸易有限公司
-报价单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OfferDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Program</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Supplier</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Descption</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${item.now}</t>
@@ -136,6 +131,10 @@
   </si>
   <si>
     <t>${item.spName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翊凯贸易有限公司报价单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +159,7 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -168,42 +167,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,16 +259,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,7 +578,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,13 +588,13 @@
     <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="89.625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -608,48 +606,48 @@
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">

--- a/one/src/main/resources/conf/templates/quote-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/quote-20160426.xlsx
@@ -134,7 +134,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翊凯贸易有限公司报价单</t>
+    <t>广州翊凯贸易有限公司报价单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
